--- a/results/tanzania/Tanzania_quantitative_08Apr25.xlsx
+++ b/results/tanzania/Tanzania_quantitative_08Apr25.xlsx
@@ -1,1041 +1,1198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienmhp/Desktop/undp/TargetAssessmentReport/results/tanzania/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7148C50F-6466-3945-A1AA-7B3E52F88F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="22240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Quantitative Terms" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Support1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Support2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Quantitative Terms" sheetId="1" r:id="rId1"/>
+    <sheet name="Support1" sheetId="2" r:id="rId2"/>
+    <sheet name="Support2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
-  <si>
-    <t xml:space="preserve">Target.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target.Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 1 (Adaptation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate climate change adaptation into ≥ 60% of national/sector plans and local government budgets by 2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Climate Change Response Strategy (2021-2026)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.vpo.go.tz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"≥ 60%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"by 2026" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 2 (Adaptation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demarcate and protect 60% of major water sources in all 9 basins to strengthen water resilience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"60%", "9" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 3 (Adaptation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct or upgrade flood-control systems in at least 50% of water basins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"at least 50%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 4 (Adaptation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure that ≥ 50% of agricultural land under climate-smart practices (irrigation, drought-resilient seeds, crop diversification)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"≥ 50%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 5 (Adaptation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduce post-harvest losses of crops (e.g., fruits, vegetables) by 40% through improved storage and value addition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"by 40%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 6 (Adaptation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promote livestock resilience by adopting improved rangeland management in ≥ 40% of pastoral communities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"≥ 40%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 7 (Adaptation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rehabilitate or sustainably manage ≥ 50% of degraded coastal zones (mangroves, reefs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 8 (Adaptation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conduct climate-proofing for all major new infrastructure projects (roads, rail, power lines)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 9 (Adaptation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equip 70% of health facilities with climate-resilient water and power systems, expanding disease surveillance to all regions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"70%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 10 (Adaptation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop or update district-level DRR plans in ≥ 30 high-risk districts, strengthening early warning systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"≥ 30" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 1 (Mitigation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduce economy-wide GHG emissions by 30–35% below BAU by 2030 (aligned with updated NDC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"by 30–35%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"by 2030" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 2 (Mitigation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand renewable energy (solar, wind, geothermal, hydro, bioenergy) to ≥ 25% of total generation mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"≥ 25%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 3 (Mitigation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adopt energy-efficient technologies (efficient cookstoves, industrial retrofits) in ≥ 40% of households and 20% of factories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"≥ 40%", "20%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 4 (Mitigation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduce or scale up mass transit systems (BRT, rail) and non-motorized transport in major cities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 5 (Mitigation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decrease the deforestation rate by 20% from baseline (~469,420 ha/year), restoring 2 million ha of degraded forests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"by 20%", "ha", "~469,420", "2 million ha" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"year" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 6 (Mitigation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop modern waste management in all major urban centers (3R—reduce, reuse, recycle) and pilot waste-to-energy projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 1 (Cross-cutting)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate climate change curricula into primary, secondary, and tertiary education, with annual climate forums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"annual" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 2 (Cross-cutting)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conduct or update climate-risk assessments in ≥ 30 districts and improve meteorological networks (TMA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 3 (Cross-cutting)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide incentives for climate-smart technology innovation(e.g., renewable micro-grids, improved seeds)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 4 (Cross-cutting)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establish a National Climate Change Financing Mechanismand integrate a climate code in national budgets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective 5 (Cross-cutting)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender mainstreaming in all climate actions, ensuring equitable participation and benefit-sharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall Resilience &amp; Water Access 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduce climate-related disaster risks (droughts, floods) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationally Determined Contribution (2021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall Resilience &amp; Water Access 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase access to safe water from 86% (urban) / 67.7% (rural) to 100% by 2030 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"86%", "67.7%", "100%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall Resilience &amp; Water Access 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protect coastal communities/ecosystems from sea-level rise (conservative &amp; worst-case scenarios)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scale up climate-smart agriculture </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promote crop insurance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthen R&amp;D and extension services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livestock 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthen climate-resilient rangeland management </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livestock 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promote livestock insurance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livestock 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhance livestock productivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forestry 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhance participatory forest management </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forestry 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safeguard ecosystem services </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forestry 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support research on forest resilience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promote climate-resilient energy systems </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diversify energy sources (clean/renewable)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coastal, Marine &amp; Fisheries 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthen coastal resource management </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coastal, Marine &amp; Fisheries 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve early warning systems (sea-level rise, extreme weather) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coastal, Marine &amp; Fisheries 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promote climate-smart fisheries/aquaculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water, Sanitation &amp; Hygiene (WASH) 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adopt climate-smart integrated water resource management </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water, Sanitation &amp; Hygiene (WASH) 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invest in resilient water supply infrastructure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water, Sanitation &amp; Hygiene (WASH) 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop groundwater sustainably</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tourism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advance sustainable tourism practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Use &amp; Human Settlements 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate climate resilience in land-use planning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Use &amp; Human Settlements 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promote resilient human settlements development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build climate-resilient public health systems </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve surveillance of climate-sensitive diseases </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand early warning systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Climate-proof” critical infrastructure (energy, transport, health) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate climate considerations in engineering curricula </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhance weather forecasting infrastructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disaster Risk Reduction (DRR) 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthen integrated DRR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disaster Risk Reduction (DRR) 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upgrade early warning systems </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disaster Risk Reduction (DRR) 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhance emergency response capacities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender Mainstreaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure adaptation actions address inequalities affecting women, youth, indigenous peoples, and other vulnerable groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacity Building, Research &amp; Tech Transfer 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invest in climate modeling &amp; cost analysis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacity Building, Research &amp; Tech Transfer 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquire/adapt appropriate adaptation technologies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacity Building, Research &amp; Tech Transfer 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encourage research on climate resilience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economy-Wide Emission Reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduce GHG emissions by 30–35% below BAU by 2030 (≈ 138–153 MtCO₂e)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"by 30–35%", "≈ 138–153 MtCO₂e" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand renewables (solar, wind, hydro, geothermal, bioenergy) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase use of natural gas (transition fuel) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduce charcoal use by promoting affordable alternatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve/expand public mass transit (rapid transport, rail, maritime) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduce or scale up non-motorized transport (urban areas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement participatory forest management &amp; conservation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engage in afforestation/reforestation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support large-scale forest landscape restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste Management 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhance reuse/reduce/recycle (3R) practices </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste Management 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop waste-to-energy programs &amp; landfill gas recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supporting Measures 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthen national MRV (Measurement, Reporting &amp; Verification) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supporting Measures 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use market (CDM, REDD+) &amp; non-market mechanisms </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supporting Measures 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Align mitigation with sustainable development (energy access, economic growth)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renewable Energy and Climate Adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promote renewable green energy technologies (biogas, LPG, Solar Energy), and climate change adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third National Five Years Development Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mof.go.tz/uploads/documents/en-1636177646-The%20Third%20National%20Five%20Years%20Development%20Plan%20202126%20Final.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate Capacity Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthen the national capacity for addressing climate change adaptation and mitigation measures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildlife Conservation Strategies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop and implement strategies to combat poaching, illegal harvesting, and trade of wildlife, forest, bee, and antiquities resources in the country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental Law Enforcement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enforce the Environmental Management Act, 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beekeeping Sector Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase the contribution of the Beekeeping subsector to the economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renewable Energy Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase the production of renewable energy sources to meet national demand and reduce dependence on non-renewable sources by 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCM Election Manifesto 2020-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://afisikuu.ccm.or.tz/website/ilani/Ilani%20CCM%20English.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"by 2025" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Resource Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement comprehensive strategies to manage water resources effectively and ensure access to clean and safe water for all by 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental Protection and Sustainability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enforce environmental laws and regulations to protect forests, rivers, and wildlife from illegal exploitation and ensure sustainable use of natural resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate-Resilient Agriculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promote climate-resilient agricultural practices to enhance food security and adapt to the impacts of climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green Technology Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop policies and initiatives to increase public and private sector investments in green technologies by 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustainable Bee Reserve Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure sustainable management of bee reserves and increase the area of gazetted bee reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Beekeeping Policy Implementation Strategy (2021-2031)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://maliasili.go.tz/assets/pdfs/BeekeepingPolicyImplementationStrategy(2021_2031)final.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecosystem Stability Enhancement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promote integrated pest management (IPM) and environmental impact assessments (EIA) for beekeeping areas to enhance ecosystem stability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bee Reserve Guidelines Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop and disseminate guidelines for the establishment and management of bee reserves and beekeeping zones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honey and Beeswax Production Enhancement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase the production and quality of honey and beeswax while ensuring sustainable management of bee resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beekeeping-based Industry Enhancement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhance beekeeping-based industries for national development and poverty alleviation through sustainable supply of bee products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-Hazard Early Warning System Enhancement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve multi-hazard, end-to-end and people-centred early warning systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Disaster Management Strategy (2022-2027)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pmo.go.tz/uploads/documents/sw-1677564328-National%20Disaster%20Management%20Strategy%202022%20–%202027.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate Change Disaster Risk Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase understanding and management of climate change-related disaster risks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financing for Disaster Risk Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhance public and private financing and investments in disaster risk management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate Change Technology and Innovation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promote technologies and innovation for managing climate change related disaster risks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery and Reconstruction Capacity Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthen capacity for build back better in recovery, rehabilitation and reconstruction for community resilience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste Reduction Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achieve 30% waste reduction through recycling and reuse by 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Solid Waste Management Strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.vpo.go.tz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"30%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Cost Recovery Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement full cost recovery for waste services to enhance sustainability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modern Landfill Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establish at least one modern landfill in each region by 2027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"at least one" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"by 2027" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazardous Waste Treatment Expansion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase hazardous waste treatment facilities to handle all generated hazardous waste by 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste Separation Initiative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop and implement waste separation at source in 50% of municipalities by 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"50%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecosystem Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore and enhance ecosystems across all degraded landscapes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Environmental Master Plan (2022-2032)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement sustainable land management practices to halt land degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reforestation Initiative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase forest cover by reforesting 15,000 hectares annually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"15,000 hectares annually" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve water resource management to ensure water security and quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renewable Energy Promotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promote renewable energy and reduce greenhouse gas emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity Connectivity Increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase electricity connectivity to 75 percent by 2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Energy Compact for Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"75 percent" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean Cooking Access Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achieve 80 percent access to clean cooking by 2034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"80 percent" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"by 2034" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renewable Energy Share Increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase the share of renewable energy to 65 percent by 2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"65 percent" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Sector Investment Mobilization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobilize US$ 3,097.28 million from the private sector for energy projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"US$ 3,097.28 million" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renewable Energy Procurement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop and operationalize competitive procurement frameworks for renewable energy by 2026</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="388">
+  <si>
+    <t>Target.Name</t>
+  </si>
+  <si>
+    <t>Target.Text</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>QUANT</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Objective 1 (Adaptation)</t>
+  </si>
+  <si>
+    <t>Integrate climate change adaptation into ≥ 60% of national/sector plans and local government budgets by 2026</t>
+  </si>
+  <si>
+    <t>National Climate Change Response Strategy (2021-2026)</t>
+  </si>
+  <si>
+    <t>https://www.vpo.go.tz</t>
+  </si>
+  <si>
+    <t>"≥ 60%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>"by 2026" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Objective 2 (Adaptation)</t>
+  </si>
+  <si>
+    <t>Demarcate and protect 60% of major water sources in all 9 basins to strengthen water resilience</t>
+  </si>
+  <si>
+    <t>"60%", "9" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Objective 3 (Adaptation)</t>
+  </si>
+  <si>
+    <t>Construct or upgrade flood-control systems in at least 50% of water basins</t>
+  </si>
+  <si>
+    <t>"at least 50%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Objective 4 (Adaptation)</t>
+  </si>
+  <si>
+    <t>Ensure that ≥ 50% of agricultural land under climate-smart practices (irrigation, drought-resilient seeds, crop diversification)</t>
+  </si>
+  <si>
+    <t>"≥ 50%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Objective 5 (Adaptation)</t>
+  </si>
+  <si>
+    <t>Reduce post-harvest losses of crops (e.g., fruits, vegetables) by 40% through improved storage and value addition</t>
+  </si>
+  <si>
+    <t>"by 40%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Objective 6 (Adaptation)</t>
+  </si>
+  <si>
+    <t>Promote livestock resilience by adopting improved rangeland management in ≥ 40% of pastoral communities</t>
+  </si>
+  <si>
+    <t>"≥ 40%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Objective 7 (Adaptation)</t>
+  </si>
+  <si>
+    <t>Rehabilitate or sustainably manage ≥ 50% of degraded coastal zones (mangroves, reefs)</t>
+  </si>
+  <si>
+    <t>Objective 8 (Adaptation)</t>
+  </si>
+  <si>
+    <t>Conduct climate-proofing for all major new infrastructure projects (roads, rail, power lines)</t>
+  </si>
+  <si>
+    <t>Objective 9 (Adaptation)</t>
+  </si>
+  <si>
+    <t>Equip 70% of health facilities with climate-resilient water and power systems, expanding disease surveillance to all regions</t>
+  </si>
+  <si>
+    <t>"70%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Objective 10 (Adaptation)</t>
+  </si>
+  <si>
+    <t>Develop or update district-level DRR plans in ≥ 30 high-risk districts, strengthening early warning systems</t>
+  </si>
+  <si>
+    <t>"≥ 30" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Objective 1 (Mitigation)</t>
+  </si>
+  <si>
+    <t>Reduce economy-wide GHG emissions by 30–35% below BAU by 2030 (aligned with updated NDC)</t>
+  </si>
+  <si>
+    <t>"by 30–35%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>"by 2030" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Objective 2 (Mitigation)</t>
+  </si>
+  <si>
+    <t>Expand renewable energy (solar, wind, geothermal, hydro, bioenergy) to ≥ 25% of total generation mix</t>
+  </si>
+  <si>
+    <t>"≥ 25%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Objective 3 (Mitigation)</t>
+  </si>
+  <si>
+    <t>Adopt energy-efficient technologies (efficient cookstoves, industrial retrofits) in ≥ 40% of households and 20% of factories</t>
+  </si>
+  <si>
+    <t>"≥ 40%", "20%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Objective 4 (Mitigation)</t>
+  </si>
+  <si>
+    <t>Introduce or scale up mass transit systems (BRT, rail) and non-motorized transport in major cities</t>
+  </si>
+  <si>
+    <t>Objective 5 (Mitigation)</t>
+  </si>
+  <si>
+    <t>Decrease the deforestation rate by 20% from baseline (~469,420 ha/year), restoring 2 million ha of degraded forests</t>
+  </si>
+  <si>
+    <t>"by 20%", "ha", "~469,420", "2 million ha" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>"year" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Objective 6 (Mitigation)</t>
+  </si>
+  <si>
+    <t>Develop modern waste management in all major urban centers (3R—reduce, reuse, recycle) and pilot waste-to-energy projects</t>
+  </si>
+  <si>
+    <t>Objective 1 (Cross-cutting)</t>
+  </si>
+  <si>
+    <t>Integrate climate change curricula into primary, secondary, and tertiary education, with annual climate forums</t>
+  </si>
+  <si>
+    <t>"annual" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Objective 2 (Cross-cutting)</t>
+  </si>
+  <si>
+    <t>Conduct or update climate-risk assessments in ≥ 30 districts and improve meteorological networks (TMA)</t>
+  </si>
+  <si>
+    <t>Objective 3 (Cross-cutting)</t>
+  </si>
+  <si>
+    <t>Provide incentives for climate-smart technology innovation(e.g., renewable micro-grids, improved seeds)</t>
+  </si>
+  <si>
+    <t>Objective 4 (Cross-cutting)</t>
+  </si>
+  <si>
+    <t>Establish a National Climate Change Financing Mechanismand integrate a climate code in national budgets</t>
+  </si>
+  <si>
+    <t>Objective 5 (Cross-cutting)</t>
+  </si>
+  <si>
+    <t>Gender mainstreaming in all climate actions, ensuring equitable participation and benefit-sharing</t>
+  </si>
+  <si>
+    <t>Overall Resilience &amp; Water Access 1</t>
+  </si>
+  <si>
+    <t>Reduce climate-related disaster risks (droughts, floods) </t>
+  </si>
+  <si>
+    <t>Nationally Determined Contribution (2021)</t>
+  </si>
+  <si>
+    <t>Overall Resilience &amp; Water Access 2</t>
+  </si>
+  <si>
+    <t>Increase access to safe water from 86% (urban) / 67.7% (rural) to 100% by 2030 </t>
+  </si>
+  <si>
+    <t>"86%", "67.7%", "100%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Overall Resilience &amp; Water Access 3</t>
+  </si>
+  <si>
+    <t>Protect coastal communities/ecosystems from sea-level rise (conservative &amp; worst-case scenarios)</t>
+  </si>
+  <si>
+    <t>Agriculture 1</t>
+  </si>
+  <si>
+    <t>Scale up climate-smart agriculture </t>
+  </si>
+  <si>
+    <t>Agriculture 2</t>
+  </si>
+  <si>
+    <t>Promote crop insurance </t>
+  </si>
+  <si>
+    <t>Agriculture 3</t>
+  </si>
+  <si>
+    <t>Strengthen R&amp;D and extension services</t>
+  </si>
+  <si>
+    <t>Livestock 1</t>
+  </si>
+  <si>
+    <t>Strengthen climate-resilient rangeland management </t>
+  </si>
+  <si>
+    <t>Livestock 2</t>
+  </si>
+  <si>
+    <t>Promote livestock insurance </t>
+  </si>
+  <si>
+    <t>Livestock 3</t>
+  </si>
+  <si>
+    <t>Enhance livestock productivity</t>
+  </si>
+  <si>
+    <t>Forestry 1</t>
+  </si>
+  <si>
+    <t>Enhance participatory forest management </t>
+  </si>
+  <si>
+    <t>Forestry 2</t>
+  </si>
+  <si>
+    <t>Safeguard ecosystem services </t>
+  </si>
+  <si>
+    <t>Forestry 3</t>
+  </si>
+  <si>
+    <t>Support research on forest resilience</t>
+  </si>
+  <si>
+    <t>Energy 1</t>
+  </si>
+  <si>
+    <t>Promote climate-resilient energy systems </t>
+  </si>
+  <si>
+    <t>Energy 2</t>
+  </si>
+  <si>
+    <t>Diversify energy sources (clean/renewable)</t>
+  </si>
+  <si>
+    <t>Coastal, Marine &amp; Fisheries 1</t>
+  </si>
+  <si>
+    <t>Strengthen coastal resource management </t>
+  </si>
+  <si>
+    <t>Coastal, Marine &amp; Fisheries 2</t>
+  </si>
+  <si>
+    <t>Improve early warning systems (sea-level rise, extreme weather) </t>
+  </si>
+  <si>
+    <t>Coastal, Marine &amp; Fisheries 3</t>
+  </si>
+  <si>
+    <t>Promote climate-smart fisheries/aquaculture</t>
+  </si>
+  <si>
+    <t>Water, Sanitation &amp; Hygiene (WASH) 1</t>
+  </si>
+  <si>
+    <t>Adopt climate-smart integrated water resource management </t>
+  </si>
+  <si>
+    <t>Water, Sanitation &amp; Hygiene (WASH) 2</t>
+  </si>
+  <si>
+    <t>Invest in resilient water supply infrastructure </t>
+  </si>
+  <si>
+    <t>Water, Sanitation &amp; Hygiene (WASH) 3</t>
+  </si>
+  <si>
+    <t>Develop groundwater sustainably</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
+    <t>Advance sustainable tourism practices</t>
+  </si>
+  <si>
+    <t>Land Use &amp; Human Settlements 1</t>
+  </si>
+  <si>
+    <t>Integrate climate resilience in land-use planning </t>
+  </si>
+  <si>
+    <t>Land Use &amp; Human Settlements 2</t>
+  </si>
+  <si>
+    <t>Promote resilient human settlements development</t>
+  </si>
+  <si>
+    <t>Health 1</t>
+  </si>
+  <si>
+    <t>Build climate-resilient public health systems </t>
+  </si>
+  <si>
+    <t>Health 2</t>
+  </si>
+  <si>
+    <t>Improve surveillance of climate-sensitive diseases </t>
+  </si>
+  <si>
+    <t>Health 3</t>
+  </si>
+  <si>
+    <t>Expand early warning systems</t>
+  </si>
+  <si>
+    <t>Infrastructure 1</t>
+  </si>
+  <si>
+    <t>“Climate-proof” critical infrastructure (energy, transport, health) </t>
+  </si>
+  <si>
+    <t>Infrastructure 2</t>
+  </si>
+  <si>
+    <t>Integrate climate considerations in engineering curricula </t>
+  </si>
+  <si>
+    <t>Infrastructure 3</t>
+  </si>
+  <si>
+    <t>Enhance weather forecasting infrastructure</t>
+  </si>
+  <si>
+    <t>Disaster Risk Reduction (DRR) 1</t>
+  </si>
+  <si>
+    <t>Strengthen integrated DRR </t>
+  </si>
+  <si>
+    <t>Disaster Risk Reduction (DRR) 2</t>
+  </si>
+  <si>
+    <t>Upgrade early warning systems </t>
+  </si>
+  <si>
+    <t>Disaster Risk Reduction (DRR) 3</t>
+  </si>
+  <si>
+    <t>Enhance emergency response capacities</t>
+  </si>
+  <si>
+    <t>Gender Mainstreaming</t>
+  </si>
+  <si>
+    <t>Ensure adaptation actions address inequalities affecting women, youth, indigenous peoples, and other vulnerable groups</t>
+  </si>
+  <si>
+    <t>Capacity Building, Research &amp; Tech Transfer 1</t>
+  </si>
+  <si>
+    <t>Invest in climate modeling &amp; cost analysis </t>
+  </si>
+  <si>
+    <t>Capacity Building, Research &amp; Tech Transfer 2</t>
+  </si>
+  <si>
+    <t>Acquire/adapt appropriate adaptation technologies </t>
+  </si>
+  <si>
+    <t>Capacity Building, Research &amp; Tech Transfer 3</t>
+  </si>
+  <si>
+    <t>Encourage research on climate resilience</t>
+  </si>
+  <si>
+    <t>Economy-Wide Emission Reduction</t>
+  </si>
+  <si>
+    <t>Reduce GHG emissions by 30–35% below BAU by 2030 (≈ 138–153 MtCO₂e)</t>
+  </si>
+  <si>
+    <t>"by 30–35%", "≈ 138–153 MtCO₂e" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Expand renewables (solar, wind, hydro, geothermal, bioenergy) </t>
+  </si>
+  <si>
+    <t>Increase use of natural gas (transition fuel) </t>
+  </si>
+  <si>
+    <t>Energy 3</t>
+  </si>
+  <si>
+    <t>Reduce charcoal use by promoting affordable alternatives</t>
+  </si>
+  <si>
+    <t>Transport 1</t>
+  </si>
+  <si>
+    <t>Improve/expand public mass transit (rapid transport, rail, maritime) </t>
+  </si>
+  <si>
+    <t>Transport 2</t>
+  </si>
+  <si>
+    <t>Introduce or scale up non-motorized transport (urban areas)</t>
+  </si>
+  <si>
+    <t>Implement participatory forest management &amp; conservation </t>
+  </si>
+  <si>
+    <t>Engage in afforestation/reforestation </t>
+  </si>
+  <si>
+    <t>Support large-scale forest landscape restoration</t>
+  </si>
+  <si>
+    <t>Waste Management 1</t>
+  </si>
+  <si>
+    <t>Enhance reuse/reduce/recycle (3R) practices </t>
+  </si>
+  <si>
+    <t>Waste Management 2</t>
+  </si>
+  <si>
+    <t>Develop waste-to-energy programs &amp; landfill gas recovery</t>
+  </si>
+  <si>
+    <t>Supporting Measures 1</t>
+  </si>
+  <si>
+    <t>Strengthen national MRV (Measurement, Reporting &amp; Verification) </t>
+  </si>
+  <si>
+    <t>Supporting Measures 2</t>
+  </si>
+  <si>
+    <t>Use market (CDM, REDD+) &amp; non-market mechanisms </t>
+  </si>
+  <si>
+    <t>Supporting Measures 3</t>
+  </si>
+  <si>
+    <t>Align mitigation with sustainable development (energy access, economic growth)</t>
+  </si>
+  <si>
+    <t>Renewable Energy and Climate Adaptation</t>
+  </si>
+  <si>
+    <t>Promote renewable green energy technologies (biogas, LPG, Solar Energy), and climate change adaptation</t>
+  </si>
+  <si>
+    <t>Third National Five Years Development Plan</t>
+  </si>
+  <si>
+    <t>https://www.mof.go.tz/uploads/documents/en-1636177646-The%20Third%20National%20Five%20Years%20Development%20Plan%20202126%20Final.pdf</t>
+  </si>
+  <si>
+    <t>Climate Capacity Building</t>
+  </si>
+  <si>
+    <t>Strengthen the national capacity for addressing climate change adaptation and mitigation measures</t>
+  </si>
+  <si>
+    <t>Wildlife Conservation Strategies</t>
+  </si>
+  <si>
+    <t>Develop and implement strategies to combat poaching, illegal harvesting, and trade of wildlife, forest, bee, and antiquities resources in the country</t>
+  </si>
+  <si>
+    <t>Environmental Law Enforcement</t>
+  </si>
+  <si>
+    <t>Enforce the Environmental Management Act, 2004</t>
+  </si>
+  <si>
+    <t>Beekeeping Sector Development</t>
+  </si>
+  <si>
+    <t>Increase the contribution of the Beekeeping subsector to the economy</t>
+  </si>
+  <si>
+    <t>Renewable Energy Production</t>
+  </si>
+  <si>
+    <t>Increase the production of renewable energy sources to meet national demand and reduce dependence on non-renewable sources by 2025</t>
+  </si>
+  <si>
+    <t>CCM Election Manifesto 2020-2025</t>
+  </si>
+  <si>
+    <t>https://afisikuu.ccm.or.tz/website/ilani/Ilani%20CCM%20English.pdf</t>
+  </si>
+  <si>
+    <t>"by 2025" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Water Resource Management</t>
+  </si>
+  <si>
+    <t>Implement comprehensive strategies to manage water resources effectively and ensure access to clean and safe water for all by 2025</t>
+  </si>
+  <si>
+    <t>Environmental Protection and Sustainability</t>
+  </si>
+  <si>
+    <t>Enforce environmental laws and regulations to protect forests, rivers, and wildlife from illegal exploitation and ensure sustainable use of natural resources</t>
+  </si>
+  <si>
+    <t>Climate-Resilient Agriculture</t>
+  </si>
+  <si>
+    <t>Promote climate-resilient agricultural practices to enhance food security and adapt to the impacts of climate change</t>
+  </si>
+  <si>
+    <t>Green Technology Investments</t>
+  </si>
+  <si>
+    <t>Develop policies and initiatives to increase public and private sector investments in green technologies by 2025</t>
+  </si>
+  <si>
+    <t>Sustainable Bee Reserve Management</t>
+  </si>
+  <si>
+    <t>Ensure sustainable management of bee reserves and increase the area of gazetted bee reserves</t>
+  </si>
+  <si>
+    <t>National Beekeeping Policy Implementation Strategy (2021-2031)</t>
+  </si>
+  <si>
+    <t>https://maliasili.go.tz/assets/pdfs/BeekeepingPolicyImplementationStrategy(2021_2031)final.pdf</t>
+  </si>
+  <si>
+    <t>Ecosystem Stability Enhancement</t>
+  </si>
+  <si>
+    <t>Promote integrated pest management (IPM) and environmental impact assessments (EIA) for beekeeping areas to enhance ecosystem stability</t>
+  </si>
+  <si>
+    <t>Bee Reserve Guidelines Development</t>
+  </si>
+  <si>
+    <t>Develop and disseminate guidelines for the establishment and management of bee reserves and beekeeping zones</t>
+  </si>
+  <si>
+    <t>Honey and Beeswax Production Enhancement</t>
+  </si>
+  <si>
+    <t>Increase the production and quality of honey and beeswax while ensuring sustainable management of bee resources</t>
+  </si>
+  <si>
+    <t>Beekeeping-based Industry Enhancement</t>
+  </si>
+  <si>
+    <t>Enhance beekeeping-based industries for national development and poverty alleviation through sustainable supply of bee products</t>
+  </si>
+  <si>
+    <t>Multi-Hazard Early Warning System Enhancement</t>
+  </si>
+  <si>
+    <t>Improve multi-hazard, end-to-end and people-centred early warning systems</t>
+  </si>
+  <si>
+    <t>National Disaster Management Strategy (2022-2027)</t>
+  </si>
+  <si>
+    <t>https://www.pmo.go.tz/uploads/documents/sw-1677564328-National%20Disaster%20Management%20Strategy%202022%20–%202027.pdf</t>
+  </si>
+  <si>
+    <t>Climate Change Disaster Risk Management</t>
+  </si>
+  <si>
+    <t>Increase understanding and management of climate change-related disaster risks</t>
+  </si>
+  <si>
+    <t>Financing for Disaster Risk Management</t>
+  </si>
+  <si>
+    <t>Enhance public and private financing and investments in disaster risk management</t>
+  </si>
+  <si>
+    <t>Climate Change Technology and Innovation</t>
+  </si>
+  <si>
+    <t>Promote technologies and innovation for managing climate change related disaster risks</t>
+  </si>
+  <si>
+    <t>Recovery and Reconstruction Capacity Building</t>
+  </si>
+  <si>
+    <t>Strengthen capacity for build back better in recovery, rehabilitation and reconstruction for community resilience</t>
+  </si>
+  <si>
+    <t>Waste Reduction Target</t>
+  </si>
+  <si>
+    <t>Achieve 30% waste reduction through recycling and reuse by 2025</t>
+  </si>
+  <si>
+    <t>National Solid Waste Management Strategy</t>
+  </si>
+  <si>
+    <t>www.vpo.go.tz</t>
+  </si>
+  <si>
+    <t>"30%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Full Cost Recovery Implementation</t>
+  </si>
+  <si>
+    <t>Implement full cost recovery for waste services to enhance sustainability</t>
+  </si>
+  <si>
+    <t>Modern Landfill Development</t>
+  </si>
+  <si>
+    <t>Establish at least one modern landfill in each region by 2027</t>
+  </si>
+  <si>
+    <t>"at least one" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>"by 2027" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Hazardous Waste Treatment Expansion</t>
+  </si>
+  <si>
+    <t>Increase hazardous waste treatment facilities to handle all generated hazardous waste by 2025</t>
+  </si>
+  <si>
+    <t>Waste Separation Initiative</t>
+  </si>
+  <si>
+    <t>Develop and implement waste separation at source in 50% of municipalities by 2025</t>
+  </si>
+  <si>
+    <t>"50%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Ecosystem Restoration</t>
+  </si>
+  <si>
+    <t>Restore and enhance ecosystems across all degraded landscapes</t>
+  </si>
+  <si>
+    <t>National Environmental Master Plan (2022-2032)</t>
+  </si>
+  <si>
+    <t>Land Management</t>
+  </si>
+  <si>
+    <t>Implement sustainable land management practices to halt land degradation</t>
+  </si>
+  <si>
+    <t>Reforestation Initiative</t>
+  </si>
+  <si>
+    <t>Increase forest cover by reforesting 15,000 hectares annually</t>
+  </si>
+  <si>
+    <t>"15,000 hectares annually" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Water Management</t>
+  </si>
+  <si>
+    <t>Improve water resource management to ensure water security and quality</t>
+  </si>
+  <si>
+    <t>Renewable Energy Promotion</t>
+  </si>
+  <si>
+    <t>Promote renewable energy and reduce greenhouse gas emissions</t>
+  </si>
+  <si>
+    <t>Electricity Connectivity Increase</t>
+  </si>
+  <si>
+    <t>Increase electricity connectivity to 75 percent by 2030</t>
+  </si>
+  <si>
+    <t>National Energy Compact for Tanzania</t>
+  </si>
+  <si>
+    <t>"75 percent" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Clean Cooking Access Target</t>
+  </si>
+  <si>
+    <t>Achieve 80 percent access to clean cooking by 2034</t>
+  </si>
+  <si>
+    <t>"80 percent" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>"by 2034" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Renewable Energy Share Increase</t>
+  </si>
+  <si>
+    <t>Increase the share of renewable energy to 65 percent by 2030</t>
+  </si>
+  <si>
+    <t>"65 percent" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Private Sector Investment Mobilization</t>
+  </si>
+  <si>
+    <t>Mobilize US$ 3,097.28 million from the private sector for energy projects</t>
+  </si>
+  <si>
+    <t>"US$ 3,097.28 million" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Renewable Energy Procurement</t>
+  </si>
+  <si>
+    <t>Develop and operationalize competitive procurement frameworks for renewable energy by 2026</t>
   </si>
   <si>
     <t xml:space="preserve">No title: </t>
   </si>
   <si>
-    <t xml:space="preserve">By 2030, the rate of biodiversity loss in marine, coastal, and inland waters reduced by 10% through effective planning and management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Biodiversity Target via Online Reporting Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ort.cbd.int/national-targets/analyzer?countries=tz#0.8/0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"by 10%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"By 2030" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, Participatory spatial planning and effective management across terrestrial, inland waters, wetlands, coastal and marine areas will be ensured.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, ensure that at least 30% of areas of degraded terrestrial, inland water and coastal and marine ecosystems are under effective restoration in order to enhance biodiversity and ecosystem functions and services, ecological integrity and connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"at least 30%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 3</t>
+    <t>By 2030, the rate of biodiversity loss in marine, coastal, and inland waters reduced by 10% through effective planning and management</t>
+  </si>
+  <si>
+    <t>National Biodiversity Target via Online Reporting Tool</t>
+  </si>
+  <si>
+    <t>https://ort.cbd.int/national-targets/analyzer?countries=tz#0.8/0/0</t>
+  </si>
+  <si>
+    <t>"by 10%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>"By 2030" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Target 1</t>
+  </si>
+  <si>
+    <t>By 2030, Participatory spatial planning and effective management across terrestrial, inland waters, wetlands, coastal and marine areas will be ensured.</t>
+  </si>
+  <si>
+    <t>Target 2</t>
+  </si>
+  <si>
+    <t>By 2030, ensure that at least 30% of areas of degraded terrestrial, inland water and coastal and marine ecosystems are under effective restoration in order to enhance biodiversity and ecosystem functions and services, ecological integrity and connectivity</t>
+  </si>
+  <si>
+    <t>"at least 30%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Target 3</t>
   </si>
   <si>
     <t xml:space="preserve"> By 2030 at least 40% of terrestrial, inland waters, wetlands, coastal and marine areas important for biodiversity and ecosystem functions and services are effectively conserved and managed.</t>
   </si>
   <si>
-    <t xml:space="preserve">"at least 40%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 4-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030 genetic diversity of native, wild, and domesticated terrestrial, coastal and marine, and inland waters’ species loss is reduced by 30%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"by 30%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 4-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030 the extinction of known threatened species is prevented and their conservation status, particularly of those most in decline, is improved and sustained.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 4-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, the genetic diversity of cultivated plants and farmed and domesticated animals and of their wild relatives, including other socio-economically as well as culturally valuable species, is maintained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 4-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, human-wildlife conflicts reduced by 40%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 5-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safe, ethical, and sustainable legal harvesting and trade of wild flora and fauna (terrestrial, freshwater, coastal and marine) to enhance ecological integrity by 2030.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 5-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assess and ensure long term sustainability of at least 3 out of 5 priority fisheries in Tanzania by 2030.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"at least 3 out of 5" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 5-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installation or deployment of electronic monitoring systems and improving existing human observer systems on 100% of Tanzania’s industrial flagged vessels by 2030.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"100%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduce the rates of introduction of invasive alien species by 50% and minimize their impact on biodiversity and ecosystem functions and services by 2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"by 50%" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, reduce 50% of plastic, excess nutrients, and pesticide pollution into terrestrial, coastal, marine, and freshwater ecosystems taking into account food security, human health, and livelihoods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimized impact of climate change on terrestrial, freshwater, coastal, and marine habitats, and other vulnerable ecosystems to maintain their integrity and build resilience by 2030.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, sustainably managed wild species and safeguard needs of the people including women, local communities, the poor, and vulnerable groups.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 10-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, enhanced application of biodiversity-friendly practices in agriculture, fisheries aquaculture, and forestry for long-term productivity and support to food security and conservation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 10-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030 agro-ecological practices including agroforestry and permaculture for local communities enhanced for improved crop productivity and food security.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, nature's contributions to people including provisioning and regulating ecosystem services are restored maintained, and enhanced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development and implementation of urban plans including the promotion of green and blue spaces for human well-being and biodiversity conservation are enhanced by 2030.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 13</t>
+    <t>"at least 40%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Target 4-1</t>
+  </si>
+  <si>
+    <t>By 2030 genetic diversity of native, wild, and domesticated terrestrial, coastal and marine, and inland waters’ species loss is reduced by 30%.</t>
+  </si>
+  <si>
+    <t>"by 30%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Target 4-2</t>
+  </si>
+  <si>
+    <t>By 2030 the extinction of known threatened species is prevented and their conservation status, particularly of those most in decline, is improved and sustained.</t>
+  </si>
+  <si>
+    <t>Target 4-3</t>
+  </si>
+  <si>
+    <t>By 2030, the genetic diversity of cultivated plants and farmed and domesticated animals and of their wild relatives, including other socio-economically as well as culturally valuable species, is maintained</t>
+  </si>
+  <si>
+    <t>Target 4-4</t>
+  </si>
+  <si>
+    <t>By 2030, human-wildlife conflicts reduced by 40%.</t>
+  </si>
+  <si>
+    <t>Target 5-1</t>
+  </si>
+  <si>
+    <t>Safe, ethical, and sustainable legal harvesting and trade of wild flora and fauna (terrestrial, freshwater, coastal and marine) to enhance ecological integrity by 2030.</t>
+  </si>
+  <si>
+    <t>Target 5-2</t>
+  </si>
+  <si>
+    <t>Assess and ensure long term sustainability of at least 3 out of 5 priority fisheries in Tanzania by 2030.</t>
+  </si>
+  <si>
+    <t>"at least 3 out of 5" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Target 5-3</t>
+  </si>
+  <si>
+    <t>Installation or deployment of electronic monitoring systems and improving existing human observer systems on 100% of Tanzania’s industrial flagged vessels by 2030.</t>
+  </si>
+  <si>
+    <t>"100%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Target 6</t>
+  </si>
+  <si>
+    <t>Reduce the rates of introduction of invasive alien species by 50% and minimize their impact on biodiversity and ecosystem functions and services by 2030</t>
+  </si>
+  <si>
+    <t>"by 50%" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Target 7</t>
+  </si>
+  <si>
+    <t>By 2030, reduce 50% of plastic, excess nutrients, and pesticide pollution into terrestrial, coastal, marine, and freshwater ecosystems taking into account food security, human health, and livelihoods</t>
+  </si>
+  <si>
+    <t>Target 8</t>
+  </si>
+  <si>
+    <t>Minimized impact of climate change on terrestrial, freshwater, coastal, and marine habitats, and other vulnerable ecosystems to maintain their integrity and build resilience by 2030.</t>
+  </si>
+  <si>
+    <t>Target 9</t>
+  </si>
+  <si>
+    <t>By 2030, sustainably managed wild species and safeguard needs of the people including women, local communities, the poor, and vulnerable groups.</t>
+  </si>
+  <si>
+    <t>Target 10-1</t>
+  </si>
+  <si>
+    <t>By 2030, enhanced application of biodiversity-friendly practices in agriculture, fisheries aquaculture, and forestry for long-term productivity and support to food security and conservation.</t>
+  </si>
+  <si>
+    <t>Target 10-2</t>
+  </si>
+  <si>
+    <t>By 2030 agro-ecological practices including agroforestry and permaculture for local communities enhanced for improved crop productivity and food security.</t>
+  </si>
+  <si>
+    <t>Target 11</t>
+  </si>
+  <si>
+    <t>By 2030, nature's contributions to people including provisioning and regulating ecosystem services are restored maintained, and enhanced</t>
+  </si>
+  <si>
+    <t>Target 12</t>
+  </si>
+  <si>
+    <t>Development and implementation of urban plans including the promotion of green and blue spaces for human well-being and biodiversity conservation are enhanced by 2030.</t>
+  </si>
+  <si>
+    <t>Target 13</t>
   </si>
   <si>
     <t xml:space="preserve"> By 2030 guidelines and regulations supporting access to genetic resources and the fair and equitable sharing of benefits arising from their utilization are implemented.</t>
   </si>
   <si>
-    <t xml:space="preserve">Target 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhanced integration of biodiversity values into national development strategies, planning processes, accounting, and reporting systems by 2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, all businesses are compelled to assess, disclose, and reduce biodiversity-related risks and negative impacts in compliance with existing legal frameworks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030 post-harvest loss of inland waters, coastal and marine fisheries, agriculture and forest products along the value chains reduced by 30%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awareness on biosafety and bio-rights in utilization and biotechnology benefits sharing strengthened by 2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, all incentives and subsidies  potentially harmful to biodiversity are identified, mapped, assessed and prioritized for reform, redesign, promotion or elimination, and action plan prepared and implemented.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, at least $300 million per year mobilized from public and private sector for effective implementation of National Biodiversity Strategic and Action Plan (NBSAP 2025-2030).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"at least $ 300 million per year" appear(s) in sentence 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, a significant increase in the contribution of knowledge, capacity-building, technology and scientifically based information generated and shared.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 21-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, knowledge, the science base and technologies relating to biodiversity its status, values, functioning and trends are improved, widely shared and applied.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 21-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, best data, information, and knowledge are accessible to decision-makers and practitioners to guide effective biodiversity governance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 22-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, participation in decision-making and access to justice and information related to biodiversity for all is ensured.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 22-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030 traditional knowledge, innovations, practices, and technologies promoted and applied.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 23-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, informed participation, leadership, and gender-responsiveness in biodiversity conservation and management improved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target 23-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2030, equal rights and access to land and natural resources enhanced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntargets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUANT_%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_%</t>
+    <t>Target 14</t>
+  </si>
+  <si>
+    <t>Enhanced integration of biodiversity values into national development strategies, planning processes, accounting, and reporting systems by 2030</t>
+  </si>
+  <si>
+    <t>Target 15</t>
+  </si>
+  <si>
+    <t>By 2030, all businesses are compelled to assess, disclose, and reduce biodiversity-related risks and negative impacts in compliance with existing legal frameworks.</t>
+  </si>
+  <si>
+    <t>Target 16</t>
+  </si>
+  <si>
+    <t>By 2030 post-harvest loss of inland waters, coastal and marine fisheries, agriculture and forest products along the value chains reduced by 30%.</t>
+  </si>
+  <si>
+    <t>Target 17</t>
+  </si>
+  <si>
+    <t>Awareness on biosafety and bio-rights in utilization and biotechnology benefits sharing strengthened by 2030</t>
+  </si>
+  <si>
+    <t>Target 18</t>
+  </si>
+  <si>
+    <t>By 2030, all incentives and subsidies  potentially harmful to biodiversity are identified, mapped, assessed and prioritized for reform, redesign, promotion or elimination, and action plan prepared and implemented.</t>
+  </si>
+  <si>
+    <t>Target 19</t>
+  </si>
+  <si>
+    <t>By 2030, at least $300 million per year mobilized from public and private sector for effective implementation of National Biodiversity Strategic and Action Plan (NBSAP 2025-2030).</t>
+  </si>
+  <si>
+    <t>"at least $ 300 million per year" appear(s) in sentence 1</t>
+  </si>
+  <si>
+    <t>Target 20</t>
+  </si>
+  <si>
+    <t>By 2030, a significant increase in the contribution of knowledge, capacity-building, technology and scientifically based information generated and shared.</t>
+  </si>
+  <si>
+    <t>Target 21-1</t>
+  </si>
+  <si>
+    <t>By 2030, knowledge, the science base and technologies relating to biodiversity its status, values, functioning and trends are improved, widely shared and applied.</t>
+  </si>
+  <si>
+    <t>Target 21-2</t>
+  </si>
+  <si>
+    <t>By 2030, best data, information, and knowledge are accessible to decision-makers and practitioners to guide effective biodiversity governance.</t>
+  </si>
+  <si>
+    <t>Target 22-1</t>
+  </si>
+  <si>
+    <t>By 2030, participation in decision-making and access to justice and information related to biodiversity for all is ensured.</t>
+  </si>
+  <si>
+    <t>Target 22-2</t>
+  </si>
+  <si>
+    <t>By 2030 traditional knowledge, innovations, practices, and technologies promoted and applied.</t>
+  </si>
+  <si>
+    <t>Target 23-1</t>
+  </si>
+  <si>
+    <t>By 2030, informed participation, leadership, and gender-responsiveness in biodiversity conservation and management improved</t>
+  </si>
+  <si>
+    <t>Target 23-2</t>
+  </si>
+  <si>
+    <t>By 2030, equal rights and access to land and natural resources enhanced.</t>
+  </si>
+  <si>
+    <t>ntargets</t>
+  </si>
+  <si>
+    <t>QUANT_%</t>
+  </si>
+  <si>
+    <t>DATE_%</t>
+  </si>
+  <si>
+    <t>Objective 8 (Mitigation)</t>
+  </si>
+  <si>
+    <t>Objective 9 (Mitigation)</t>
+  </si>
+  <si>
+    <t>Forest Restoration</t>
+  </si>
+  <si>
+    <t>Community Forestry</t>
+  </si>
+  <si>
+    <t>Tree Nursery Management</t>
+  </si>
+  <si>
+    <t>Botanical Gardens Development</t>
+  </si>
+  <si>
+    <t>Alternative Energy Sources</t>
+  </si>
+  <si>
+    <t>Awareness and Education</t>
+  </si>
+  <si>
+    <t>Biodiversity Valuation</t>
+  </si>
+  <si>
+    <t>Policy and Incentive Reform</t>
+  </si>
+  <si>
+    <t>Investment in Biodiversity</t>
+  </si>
+  <si>
+    <t>Pollution and Habitat Protection</t>
+  </si>
+  <si>
+    <t>Climate Change Impact Management</t>
+  </si>
+  <si>
+    <t>Species and Genetic Diversity</t>
+  </si>
+  <si>
+    <t>Ecosystem Services Enhancement</t>
+  </si>
+  <si>
+    <t>Governance and Participation</t>
+  </si>
+  <si>
+    <t>Knowledge Sharing</t>
+  </si>
+  <si>
+    <t>Financial Resources Enhancement</t>
+  </si>
+  <si>
+    <t>Enhance capacity and coordination on climate change governance (e.g., institutional strengthening, training, awareness).</t>
+  </si>
+  <si>
+    <t>Improve meteorological data, climate information, and research (e.g., install new stations, strengthen TMA-Zanzibar).</t>
+  </si>
+  <si>
+    <t>Strengthen disaster risk management and early warning systems for climate extremes, including community-level outreach.</t>
+  </si>
+  <si>
+    <t>Undertake risk &amp; vulnerability mapping for land-use planning, focusing on flood-prone and coastal hazard areas.</t>
+  </si>
+  <si>
+    <t>Expand integrated coastal zone management, promoting mangrove restoration and shoreline vegetation buffers.</t>
+  </si>
+  <si>
+    <t>Implement climate-smart agriculture (e.g., soil &amp; water conservation, agroforestry, improved seeds, irrigation).</t>
+  </si>
+  <si>
+    <t>Adopt integrated water resources management (e.g., reduce leakages, promote rainwater harvesting, regulate abstraction).</t>
+  </si>
+  <si>
+    <t>Scale up community-based forest management, afforestation, and REDD+ initiatives to reduce deforestation pressures.</t>
+  </si>
+  <si>
+    <t>Promote energy efficiency (e.g., efficient cookstoves) and renewable energy (solar, wind) to diversify the energy mix.</t>
+  </si>
+  <si>
+    <t>Develop climate-resilient and low carbon tourism by adopting efficiency measures and enforcing coastal building codes.</t>
+  </si>
+  <si>
+    <t>Restore natural green cover across the island</t>
+  </si>
+  <si>
+    <t>Enhance community participation in forestry conservation</t>
+  </si>
+  <si>
+    <t>Develop and strengthen tree nurseries management</t>
+  </si>
+  <si>
+    <t>Upscale botanical gardens to preserve indigenous plant species</t>
+  </si>
+  <si>
+    <t>Promote alternative sources of energy to reduce dependency on biomass</t>
+  </si>
+  <si>
+    <t>Increase public awareness about the importance of biodiversity to 20% of the population</t>
+  </si>
+  <si>
+    <t>Integrate biodiversity valuation and ecosystem service payments into sectoral plans</t>
+  </si>
+  <si>
+    <t>Eliminate harmful incentives and develop positive conservation incentives</t>
+  </si>
+  <si>
+    <t>Increase investments in biodiversity conservation through sustainable practices</t>
+  </si>
+  <si>
+    <t>Reduce habitat degradation and pollution levels, manage invasive species</t>
+  </si>
+  <si>
+    <t>Minimize pressures on coral reefs and vulnerable ecosystems due to climate change</t>
+  </si>
+  <si>
+    <t>Manage critical species for long-term sustainability and implement strategies to reduce genetic erosion</t>
+  </si>
+  <si>
+    <t>Enhance ecosystems that contribute to human health, livelihoods, and well-being, focusing on vulnerable communities</t>
+  </si>
+  <si>
+    <t>Develop the Zanzibar Biodiversity Strategy and Action Plan with effective community participation and respect for traditional knowledge in biodiversity conservation</t>
+  </si>
+  <si>
+    <t>Increase the generation and sharing of scientific information on biodiversity</t>
+  </si>
+  <si>
+    <t>Significantly enhance financial resources for biodiversity programs</t>
+  </si>
+  <si>
+    <t>Zanzibar Climate Change Strategy (2012-2030)</t>
+  </si>
+  <si>
+    <t>Draft Green Legacy Document for Zanzibar 2023</t>
+  </si>
+  <si>
+    <t>Biodiversity Finance Plan</t>
+  </si>
+  <si>
+    <t>http://www.omkr.go.tz</t>
+  </si>
+  <si>
+    <t>https://www.biofin.org/knowledge-product/tanzanias-biodiversity-finance-plan</t>
+  </si>
+  <si>
+    <t>"20%" appear(s) in sentence 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1071,6 +1228,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1352,14 +1518,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1399,7 +1565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1419,7 +1585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1439,7 +1605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1459,7 +1625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1499,7 +1665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1519,7 +1685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1539,7 +1705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1559,7 +1725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1579,7 +1745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1599,7 +1765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1619,7 +1785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1639,7 +1805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1659,7 +1825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1679,7 +1845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1699,7 +1865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1719,7 +1885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1739,7 +1905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -1759,7 +1925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1779,7 +1945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1799,7 +1965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1819,7 +1985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1839,7 +2005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1859,7 +2025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1879,7 +2045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1899,7 +2065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1919,7 +2085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1939,7 +2105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1959,7 +2125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -1979,7 +2145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -1999,7 +2165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -2019,7 +2185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -2039,7 +2205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -2059,7 +2225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -2079,7 +2245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -2099,7 +2265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -2119,7 +2285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -2139,7 +2305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -2159,7 +2325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -2179,7 +2345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -2199,7 +2365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -2219,7 +2385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -2239,7 +2405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -2259,7 +2425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -2279,7 +2445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -2299,7 +2465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -2319,7 +2485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -2339,7 +2505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -2359,7 +2525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -2379,7 +2545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -2399,7 +2565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>129</v>
       </c>
@@ -2419,7 +2585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -2439,7 +2605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -2459,7 +2625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>135</v>
       </c>
@@ -2479,7 +2645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -2499,7 +2665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -2519,7 +2685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -2539,7 +2705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -2559,7 +2725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -2579,7 +2745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>146</v>
       </c>
@@ -2599,7 +2765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -2619,7 +2785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>150</v>
       </c>
@@ -2639,7 +2805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -2659,7 +2825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -2679,7 +2845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -2699,7 +2865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -2719,7 +2885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>157</v>
       </c>
@@ -2739,7 +2905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>159</v>
       </c>
@@ -2759,7 +2925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -2779,7 +2945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>163</v>
       </c>
@@ -2799,7 +2965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -2819,7 +2985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -2839,7 +3005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>171</v>
       </c>
@@ -2859,7 +3025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -2879,7 +3045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>175</v>
       </c>
@@ -2899,7 +3065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>177</v>
       </c>
@@ -2919,7 +3085,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>182</v>
       </c>
@@ -2939,7 +3105,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>184</v>
       </c>
@@ -2959,7 +3125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>186</v>
       </c>
@@ -2979,7 +3145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -2999,7 +3165,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -3019,7 +3185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>194</v>
       </c>
@@ -3039,7 +3205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>196</v>
       </c>
@@ -3059,7 +3225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>198</v>
       </c>
@@ -3079,7 +3245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>200</v>
       </c>
@@ -3099,7 +3265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -3119,7 +3285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>206</v>
       </c>
@@ -3139,7 +3305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>208</v>
       </c>
@@ -3159,7 +3325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>210</v>
       </c>
@@ -3179,7 +3345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>212</v>
       </c>
@@ -3199,7 +3365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>214</v>
       </c>
@@ -3219,7 +3385,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -3239,7 +3405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -3259,7 +3425,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>225</v>
       </c>
@@ -3279,7 +3445,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>227</v>
       </c>
@@ -3299,7 +3465,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>230</v>
       </c>
@@ -3319,7 +3485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>233</v>
       </c>
@@ -3339,7 +3505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>235</v>
       </c>
@@ -3359,7 +3525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>238</v>
       </c>
@@ -3379,7 +3545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>240</v>
       </c>
@@ -3399,7 +3565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>242</v>
       </c>
@@ -3419,7 +3585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>246</v>
       </c>
@@ -3439,7 +3605,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>250</v>
       </c>
@@ -3459,7 +3625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>253</v>
       </c>
@@ -3479,7 +3645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>256</v>
       </c>
@@ -3499,7 +3665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>258</v>
       </c>
@@ -3519,7 +3685,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>264</v>
       </c>
@@ -3539,7 +3705,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>266</v>
       </c>
@@ -3559,7 +3725,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>269</v>
       </c>
@@ -3579,7 +3745,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>272</v>
       </c>
@@ -3599,7 +3765,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>275</v>
       </c>
@@ -3619,7 +3785,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>277</v>
       </c>
@@ -3639,7 +3805,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>279</v>
       </c>
@@ -3659,7 +3825,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>281</v>
       </c>
@@ -3679,7 +3845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>283</v>
       </c>
@@ -3699,7 +3865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>286</v>
       </c>
@@ -3719,7 +3885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>289</v>
       </c>
@@ -3739,7 +3905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>292</v>
       </c>
@@ -3759,7 +3925,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>294</v>
       </c>
@@ -3779,7 +3945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>296</v>
       </c>
@@ -3799,7 +3965,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>298</v>
       </c>
@@ -3819,7 +3985,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>300</v>
       </c>
@@ -3839,7 +4005,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>302</v>
       </c>
@@ -3859,7 +4025,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>304</v>
       </c>
@@ -3879,7 +4045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>306</v>
       </c>
@@ -3899,7 +4065,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>308</v>
       </c>
@@ -3919,7 +4085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>310</v>
       </c>
@@ -3939,7 +4105,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>312</v>
       </c>
@@ -3959,7 +4125,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>314</v>
       </c>
@@ -3979,7 +4145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>316</v>
       </c>
@@ -3999,7 +4165,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>318</v>
       </c>
@@ -4019,7 +4185,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>321</v>
       </c>
@@ -4039,7 +4205,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>323</v>
       </c>
@@ -4059,7 +4225,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>325</v>
       </c>
@@ -4079,7 +4245,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>327</v>
       </c>
@@ -4099,7 +4265,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>329</v>
       </c>
@@ -4119,7 +4285,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>331</v>
       </c>
@@ -4139,7 +4305,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>333</v>
       </c>
@@ -4159,21 +4325,526 @@
         <v>263</v>
       </c>
     </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" t="s">
+        <v>356</v>
+      </c>
+      <c r="C141" t="s">
+        <v>382</v>
+      </c>
+      <c r="D141" t="s">
+        <v>385</v>
+      </c>
+      <c r="E141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>59</v>
+      </c>
+      <c r="B142" t="s">
+        <v>357</v>
+      </c>
+      <c r="C142" t="s">
+        <v>382</v>
+      </c>
+      <c r="D142" t="s">
+        <v>385</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>358</v>
+      </c>
+      <c r="C143" t="s">
+        <v>382</v>
+      </c>
+      <c r="D143" t="s">
+        <v>385</v>
+      </c>
+      <c r="E143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>359</v>
+      </c>
+      <c r="C144" t="s">
+        <v>382</v>
+      </c>
+      <c r="D144" t="s">
+        <v>385</v>
+      </c>
+      <c r="E144" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145" t="s">
+        <v>360</v>
+      </c>
+      <c r="C145" t="s">
+        <v>382</v>
+      </c>
+      <c r="D145" t="s">
+        <v>385</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" t="s">
+        <v>361</v>
+      </c>
+      <c r="C146" t="s">
+        <v>382</v>
+      </c>
+      <c r="D146" t="s">
+        <v>385</v>
+      </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" t="s">
+        <v>362</v>
+      </c>
+      <c r="C147" t="s">
+        <v>382</v>
+      </c>
+      <c r="D147" t="s">
+        <v>385</v>
+      </c>
+      <c r="E147" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>338</v>
+      </c>
+      <c r="B148" t="s">
+        <v>363</v>
+      </c>
+      <c r="C148" t="s">
+        <v>382</v>
+      </c>
+      <c r="D148" t="s">
+        <v>385</v>
+      </c>
+      <c r="E148" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>339</v>
+      </c>
+      <c r="B149" t="s">
+        <v>364</v>
+      </c>
+      <c r="C149" t="s">
+        <v>382</v>
+      </c>
+      <c r="D149" t="s">
+        <v>385</v>
+      </c>
+      <c r="E149" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150" t="s">
+        <v>365</v>
+      </c>
+      <c r="C150" t="s">
+        <v>382</v>
+      </c>
+      <c r="D150" t="s">
+        <v>385</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>340</v>
+      </c>
+      <c r="B151" t="s">
+        <v>366</v>
+      </c>
+      <c r="C151" t="s">
+        <v>383</v>
+      </c>
+      <c r="E151" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>341</v>
+      </c>
+      <c r="B152" t="s">
+        <v>367</v>
+      </c>
+      <c r="C152" t="s">
+        <v>383</v>
+      </c>
+      <c r="E152" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B153" t="s">
+        <v>368</v>
+      </c>
+      <c r="C153" t="s">
+        <v>383</v>
+      </c>
+      <c r="E153" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>343</v>
+      </c>
+      <c r="B154" t="s">
+        <v>369</v>
+      </c>
+      <c r="C154" t="s">
+        <v>383</v>
+      </c>
+      <c r="E154" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>344</v>
+      </c>
+      <c r="B155" t="s">
+        <v>370</v>
+      </c>
+      <c r="C155" t="s">
+        <v>383</v>
+      </c>
+      <c r="E155" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>345</v>
+      </c>
+      <c r="B156" t="s">
+        <v>371</v>
+      </c>
+      <c r="C156" t="s">
+        <v>384</v>
+      </c>
+      <c r="D156" t="s">
+        <v>386</v>
+      </c>
+      <c r="E156" t="s">
+        <v>387</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>346</v>
+      </c>
+      <c r="B157" t="s">
+        <v>372</v>
+      </c>
+      <c r="C157" t="s">
+        <v>384</v>
+      </c>
+      <c r="D157" t="s">
+        <v>386</v>
+      </c>
+      <c r="E157" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>347</v>
+      </c>
+      <c r="B158" t="s">
+        <v>373</v>
+      </c>
+      <c r="C158" t="s">
+        <v>384</v>
+      </c>
+      <c r="D158" t="s">
+        <v>386</v>
+      </c>
+      <c r="E158" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>348</v>
+      </c>
+      <c r="B159" t="s">
+        <v>374</v>
+      </c>
+      <c r="C159" t="s">
+        <v>384</v>
+      </c>
+      <c r="D159" t="s">
+        <v>386</v>
+      </c>
+      <c r="E159" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>349</v>
+      </c>
+      <c r="B160" t="s">
+        <v>375</v>
+      </c>
+      <c r="C160" t="s">
+        <v>384</v>
+      </c>
+      <c r="D160" t="s">
+        <v>386</v>
+      </c>
+      <c r="E160" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>350</v>
+      </c>
+      <c r="B161" t="s">
+        <v>376</v>
+      </c>
+      <c r="C161" t="s">
+        <v>384</v>
+      </c>
+      <c r="D161" t="s">
+        <v>386</v>
+      </c>
+      <c r="E161" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>351</v>
+      </c>
+      <c r="B162" t="s">
+        <v>377</v>
+      </c>
+      <c r="C162" t="s">
+        <v>384</v>
+      </c>
+      <c r="D162" t="s">
+        <v>386</v>
+      </c>
+      <c r="E162" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>352</v>
+      </c>
+      <c r="B163" t="s">
+        <v>378</v>
+      </c>
+      <c r="C163" t="s">
+        <v>384</v>
+      </c>
+      <c r="D163" t="s">
+        <v>386</v>
+      </c>
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>353</v>
+      </c>
+      <c r="B164" t="s">
+        <v>379</v>
+      </c>
+      <c r="C164" t="s">
+        <v>384</v>
+      </c>
+      <c r="D164" t="s">
+        <v>386</v>
+      </c>
+      <c r="E164" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>354</v>
+      </c>
+      <c r="B165" t="s">
+        <v>380</v>
+      </c>
+      <c r="C165" t="s">
+        <v>384</v>
+      </c>
+      <c r="D165" t="s">
+        <v>386</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>355</v>
+      </c>
+      <c r="B166" t="s">
+        <v>381</v>
+      </c>
+      <c r="C166" t="s">
+        <v>384</v>
+      </c>
+      <c r="D166" t="s">
+        <v>386</v>
+      </c>
+      <c r="E166" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4187,917 +4858,917 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>141</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>177</v>
       </c>
       <c r="B19" t="s">
         <v>179</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>182</v>
       </c>
       <c r="B20" t="s">
         <v>179</v>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>188</v>
       </c>
       <c r="B21" t="s">
         <v>179</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>214</v>
       </c>
       <c r="B22" t="s">
         <v>216</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>221</v>
       </c>
       <c r="B23" t="s">
         <v>216</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>225</v>
       </c>
       <c r="B24" t="s">
         <v>216</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>227</v>
       </c>
       <c r="B25" t="s">
         <v>216</v>
       </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>235</v>
       </c>
       <c r="B26" t="s">
         <v>232</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>242</v>
       </c>
       <c r="B27" t="s">
         <v>244</v>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>246</v>
       </c>
       <c r="B28" t="s">
         <v>244</v>
       </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>250</v>
       </c>
       <c r="B29" t="s">
         <v>244</v>
       </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>253</v>
       </c>
       <c r="B30" t="s">
         <v>244</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>256</v>
       </c>
       <c r="B31" t="s">
         <v>244</v>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>258</v>
       </c>
       <c r="B32" t="s">
         <v>260</v>
       </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>264</v>
       </c>
       <c r="B33" t="s">
         <v>260</v>
       </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>266</v>
       </c>
       <c r="B34" t="s">
         <v>260</v>
       </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>269</v>
       </c>
       <c r="B35" t="s">
         <v>260</v>
       </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>272</v>
       </c>
       <c r="B36" t="s">
         <v>260</v>
       </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>275</v>
       </c>
       <c r="B37" t="s">
         <v>260</v>
       </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>277</v>
       </c>
       <c r="B38" t="s">
         <v>260</v>
       </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>279</v>
       </c>
       <c r="B39" t="s">
         <v>260</v>
       </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>281</v>
       </c>
       <c r="B40" t="s">
         <v>260</v>
       </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>283</v>
       </c>
       <c r="B41" t="s">
         <v>260</v>
       </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>286</v>
       </c>
       <c r="B42" t="s">
         <v>260</v>
       </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>289</v>
       </c>
       <c r="B43" t="s">
         <v>260</v>
       </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>292</v>
       </c>
       <c r="B44" t="s">
         <v>260</v>
       </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>294</v>
       </c>
       <c r="B45" t="s">
         <v>260</v>
       </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>296</v>
       </c>
       <c r="B46" t="s">
         <v>260</v>
       </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>298</v>
       </c>
       <c r="B47" t="s">
         <v>260</v>
       </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>300</v>
       </c>
       <c r="B48" t="s">
         <v>260</v>
       </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>302</v>
       </c>
       <c r="B49" t="s">
         <v>260</v>
       </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
         <v>0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>304</v>
       </c>
       <c r="B50" t="s">
         <v>260</v>
       </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>306</v>
       </c>
       <c r="B51" t="s">
         <v>260</v>
       </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
         <v>0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>308</v>
       </c>
       <c r="B52" t="s">
         <v>260</v>
       </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
         <v>0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>310</v>
       </c>
       <c r="B53" t="s">
         <v>260</v>
       </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>312</v>
       </c>
       <c r="B54" t="s">
         <v>260</v>
       </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>314</v>
       </c>
       <c r="B55" t="s">
         <v>260</v>
       </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>316</v>
       </c>
       <c r="B56" t="s">
         <v>260</v>
       </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
         <v>0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>318</v>
       </c>
       <c r="B57" t="s">
         <v>260</v>
       </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>321</v>
       </c>
       <c r="B58" t="s">
         <v>260</v>
       </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
         <v>0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>323</v>
       </c>
       <c r="B59" t="s">
         <v>260</v>
       </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
         <v>0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>325</v>
       </c>
       <c r="B60" t="s">
         <v>260</v>
       </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
         <v>0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>327</v>
       </c>
       <c r="B61" t="s">
         <v>260</v>
       </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
         <v>0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>329</v>
       </c>
       <c r="B62" t="s">
         <v>260</v>
       </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>331</v>
       </c>
       <c r="B63" t="s">
         <v>260</v>
       </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>333</v>
       </c>
       <c r="B64" t="s">
         <v>260</v>
       </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>15</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>50</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5117,148 +5788,148 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>179</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>100</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>260</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>33</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>33</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>33</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>100</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>15</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
         <v>93</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>244</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>80</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>80</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>232</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>216</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>75</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>100</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>100</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>